--- a/ControllersContent.xlsx
+++ b/ControllersContent.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Home\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Vilio\ItVideo\ItVideo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12855" windowHeight="10200"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12855" windowHeight="10200" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>ItVideo</t>
   </si>
@@ -117,12 +118,45 @@
   </si>
   <si>
     <t>/user/upload/avatar</t>
+  </si>
+  <si>
+    <t>Коментари</t>
+  </si>
+  <si>
+    <t>uri</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>/addComment</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>добаване на коментар с презареждане на страницата</t>
+  </si>
+  <si>
+    <t>/commentLike</t>
+  </si>
+  <si>
+    <t>Лайкване на коментар с презареждане на страницата</t>
+  </si>
+  <si>
+    <t>/player/commentLikeTest</t>
+  </si>
+  <si>
+    <t>Лайкване на коментар без презареждане</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -152,13 +186,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,11 +502,11 @@
       <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
       <c r="J1" t="s">
         <v>26</v>
       </c>
@@ -613,4 +650,73 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>